--- a/Wine Institute B Photos.xlsx
+++ b/Wine Institute B Photos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Departments\Cataloging\Students\Aditi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecphillips\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="659">
   <si>
     <t/>
   </si>
@@ -1134,9 +1134,6 @@
     <t>Image_Number_OLD</t>
   </si>
   <si>
-    <t>Image_Number</t>
-  </si>
-  <si>
     <t>Classification2</t>
   </si>
   <si>
@@ -1830,12 +1827,6 @@
     <t>Autumn 1957</t>
   </si>
   <si>
-    <t>B-001</t>
-  </si>
-  <si>
-    <t>B-000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Forest land at top of California hill cleared for vineyards </t>
   </si>
   <si>
@@ -1845,30 +1836,6 @@
     <t>Vineyards cleared from wooded slopes</t>
   </si>
   <si>
-    <t>B-022</t>
-  </si>
-  <si>
-    <t>B-030</t>
-  </si>
-  <si>
-    <t>B-050</t>
-  </si>
-  <si>
-    <t>B-052</t>
-  </si>
-  <si>
-    <t>B-057</t>
-  </si>
-  <si>
-    <t>B-058</t>
-  </si>
-  <si>
-    <t>B-059</t>
-  </si>
-  <si>
-    <t>B-060</t>
-  </si>
-  <si>
     <t>Vineyard under foggy fall skies</t>
   </si>
   <si>
@@ -1890,15 +1857,6 @@
     <t xml:space="preserve">New vineyard </t>
   </si>
   <si>
-    <t>B-132</t>
-  </si>
-  <si>
-    <t>B-180</t>
-  </si>
-  <si>
-    <t>B-221</t>
-  </si>
-  <si>
     <t>California vineyard turns autumn gold and red after annual vintage</t>
   </si>
   <si>
@@ -1953,12 +1911,6 @@
     <t>Spring comes to California</t>
   </si>
   <si>
-    <t>B-330</t>
-  </si>
-  <si>
-    <t>B-340</t>
-  </si>
-  <si>
     <t>Acres if wine photographed in early spring</t>
   </si>
   <si>
@@ -2046,16 +1998,13 @@
     <t>B- 501c</t>
   </si>
   <si>
-    <t>B-520</t>
-  </si>
-  <si>
-    <t>B- 850c</t>
-  </si>
-  <si>
     <t>Close up, young vine</t>
   </si>
   <si>
     <t>Young vineyard, Anderson Valley, Mendocino cty.</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -2468,8 +2417,8 @@
   <dimension ref="A1:T294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M296" sqref="M296"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,16 +2446,16 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>368</v>
+        <v>658</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>367</v>
@@ -2536,10 +2485,10 @@
         <v>359</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>358</v>
@@ -2568,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N2">
         <v>169</v>
@@ -2597,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L3" s="7">
         <v>22920</v>
@@ -2626,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>575</v>
+      </c>
+      <c r="L4" t="s">
         <v>576</v>
-      </c>
-      <c r="L4" t="s">
-        <v>577</v>
       </c>
       <c r="N4">
         <v>169</v>
@@ -2715,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N6">
         <v>169</v>
@@ -2751,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L7">
         <v>1941</v>
@@ -2787,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>223</v>
@@ -2883,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
@@ -2927,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
@@ -2971,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
@@ -3011,7 +2960,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
@@ -3053,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -3097,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
@@ -3141,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
@@ -3181,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
@@ -3225,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
@@ -3269,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
@@ -3313,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
@@ -3357,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
@@ -3401,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
@@ -3443,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
@@ -4619,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
@@ -5025,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -5069,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>262</v>
@@ -5849,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
@@ -6001,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>227</v>
@@ -6268,7 +6217,7 @@
         <v>89</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N71" s="1">
         <v>171</v>
@@ -6568,7 +6517,7 @@
         <v>223</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N76" s="1">
         <v>171</v>
@@ -7108,7 +7057,7 @@
         <v>223</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N85" s="1">
         <v>171</v>
@@ -7168,7 +7117,7 @@
         <v>223</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N86" s="1">
         <v>171</v>
@@ -7948,7 +7897,7 @@
         <v>223</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N99" s="1">
         <v>172</v>
@@ -8008,7 +7957,7 @@
         <v>223</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N100" s="1">
         <v>172</v>
@@ -8068,7 +8017,7 @@
         <v>223</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N101" s="1">
         <v>172</v>
@@ -8128,7 +8077,7 @@
         <v>223</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N102" s="1">
         <v>172</v>
@@ -8248,7 +8197,7 @@
         <v>223</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N104" s="1">
         <v>172</v>
@@ -8308,7 +8257,7 @@
         <v>223</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N105" s="1">
         <v>172</v>
@@ -8368,7 +8317,7 @@
         <v>223</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N106" s="1">
         <v>172</v>
@@ -8668,7 +8617,7 @@
         <v>223</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N111" s="1">
         <v>172</v>
@@ -8728,7 +8677,7 @@
         <v>223</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N112" s="1">
         <v>172</v>
@@ -9208,7 +9157,7 @@
         <v>223</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N120" s="1">
         <v>172</v>
@@ -9508,7 +9457,7 @@
         <v>223</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N125" s="1">
         <v>172</v>
@@ -9568,7 +9517,7 @@
         <v>223</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N126" s="1">
         <v>172</v>
@@ -9808,7 +9757,7 @@
         <v>223</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N130" s="1">
         <v>173</v>
@@ -10644,7 +10593,7 @@
         <v>42</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N144" s="1">
         <v>173</v>
@@ -10695,7 +10644,7 @@
         <v>42</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N145" s="1">
         <v>173</v>
@@ -11362,7 +11311,7 @@
         <v>17</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N162" s="1">
         <v>173</v>
@@ -11438,7 +11387,7 @@
         <v>223</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N164" s="1">
         <v>174</v>
@@ -11476,7 +11425,7 @@
         <v>223</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N165" s="1">
         <v>174</v>
@@ -11552,7 +11501,7 @@
         <v>223</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N167" s="1">
         <v>174</v>
@@ -11601,10 +11550,10 @@
     </row>
     <row r="169" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D169" s="3" t="s">
-        <v>601</v>
+        <v>373</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N169" s="1">
         <v>174</v>
@@ -11615,10 +11564,10 @@
     </row>
     <row r="170" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D170" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M170" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="N170" s="1">
         <v>174</v>
@@ -11629,10 +11578,10 @@
     </row>
     <row r="171" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D171" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N171" s="1">
         <v>174</v>
@@ -11643,10 +11592,10 @@
     </row>
     <row r="172" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D172" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N172" s="1">
         <v>174</v>
@@ -11657,10 +11606,10 @@
     </row>
     <row r="173" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D173" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N173" s="1">
         <v>174</v>
@@ -11671,10 +11620,10 @@
     </row>
     <row r="174" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D174" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="N174" s="1">
         <v>174</v>
@@ -11685,10 +11634,10 @@
     </row>
     <row r="175" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D175" s="3" t="s">
-        <v>605</v>
+        <v>381</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="N175" s="1">
         <v>174</v>
@@ -11699,10 +11648,10 @@
     </row>
     <row r="176" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D176" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="N176" s="1">
         <v>174</v>
@@ -11713,10 +11662,10 @@
     </row>
     <row r="177" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D177" s="3" t="s">
-        <v>606</v>
+        <v>383</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N177" s="1">
         <v>174</v>
@@ -11727,10 +11676,10 @@
     </row>
     <row r="178" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D178" s="3" t="s">
-        <v>607</v>
+        <v>384</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="N178" s="1">
         <v>174</v>
@@ -11741,10 +11690,10 @@
     </row>
     <row r="179" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D179" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="N179" s="1">
         <v>174</v>
@@ -11755,10 +11704,10 @@
     </row>
     <row r="180" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D180" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="N180" s="1">
         <v>174</v>
@@ -11769,10 +11718,10 @@
     </row>
     <row r="181" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D181" s="3" t="s">
-        <v>608</v>
+        <v>388</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="N181" s="1">
         <v>174</v>
@@ -11783,10 +11732,10 @@
     </row>
     <row r="182" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D182" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="N182" s="1">
         <v>174</v>
@@ -11797,10 +11746,10 @@
     </row>
     <row r="183" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D183" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="N183" s="1">
         <v>174</v>
@@ -11811,10 +11760,10 @@
     </row>
     <row r="184" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D184" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="N184" s="1">
         <v>174</v>
@@ -11825,10 +11774,10 @@
     </row>
     <row r="185" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D185" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="N185" s="1">
         <v>174</v>
@@ -11839,10 +11788,10 @@
     </row>
     <row r="186" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D186" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N186" s="1">
         <v>174</v>
@@ -11853,10 +11802,10 @@
     </row>
     <row r="187" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D187" s="3" t="s">
-        <v>609</v>
+        <v>395</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N187" s="1">
         <v>174</v>
@@ -11867,10 +11816,10 @@
     </row>
     <row r="188" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D188" s="3" t="s">
-        <v>610</v>
+        <v>397</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N188" s="1">
         <v>174</v>
@@ -11881,10 +11830,10 @@
     </row>
     <row r="189" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D189" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N189" s="1">
         <v>174</v>
@@ -11895,10 +11844,10 @@
     </row>
     <row r="190" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D190" s="3" t="s">
-        <v>611</v>
+        <v>398</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N190" s="1">
         <v>174</v>
@@ -11909,10 +11858,10 @@
     </row>
     <row r="191" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D191" s="3" t="s">
-        <v>612</v>
+        <v>399</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N191" s="1">
         <v>174</v>
@@ -11923,10 +11872,10 @@
     </row>
     <row r="192" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D192" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="N192" s="1">
         <v>174</v>
@@ -11937,10 +11886,10 @@
     </row>
     <row r="193" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D193" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="N193" s="3">
         <v>175</v>
@@ -11951,10 +11900,10 @@
     </row>
     <row r="194" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D194" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="N194" s="3">
         <v>175</v>
@@ -11965,10 +11914,10 @@
     </row>
     <row r="195" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D195" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="N195" s="3">
         <v>175</v>
@@ -11979,10 +11928,10 @@
     </row>
     <row r="196" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D196" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="N196" s="3">
         <v>175</v>
@@ -11993,10 +11942,10 @@
     </row>
     <row r="197" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D197" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="M197" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="N197" s="3">
         <v>175</v>
@@ -12007,10 +11956,10 @@
     </row>
     <row r="198" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D198" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N198" s="3">
         <v>175</v>
@@ -12021,10 +11970,10 @@
     </row>
     <row r="199" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D199" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N199" s="3">
         <v>175</v>
@@ -12035,10 +11984,10 @@
     </row>
     <row r="200" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D200" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="N200" s="3">
         <v>175</v>
@@ -12049,10 +11998,10 @@
     </row>
     <row r="201" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D201" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="N201" s="3">
         <v>175</v>
@@ -12063,10 +12012,10 @@
     </row>
     <row r="202" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D202" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="N202" s="3">
         <v>175</v>
@@ -12077,10 +12026,10 @@
     </row>
     <row r="203" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D203" s="3" t="s">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="N203" s="3">
         <v>175</v>
@@ -12091,10 +12040,10 @@
     </row>
     <row r="204" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D204" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="N204" s="3">
         <v>175</v>
@@ -12105,10 +12054,10 @@
     </row>
     <row r="205" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D205" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="N205" s="3">
         <v>175</v>
@@ -12119,10 +12068,10 @@
     </row>
     <row r="206" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D206" s="3" t="s">
-        <v>621</v>
+        <v>425</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N206" s="3">
         <v>175</v>
@@ -12133,10 +12082,10 @@
     </row>
     <row r="207" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D207" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M207" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="M207" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="N207" s="3">
         <v>175</v>
@@ -12147,10 +12096,10 @@
     </row>
     <row r="208" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D208" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="N208" s="3">
         <v>175</v>
@@ -12161,10 +12110,10 @@
     </row>
     <row r="209" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D209" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="N209" s="3">
         <v>175</v>
@@ -12175,10 +12124,10 @@
     </row>
     <row r="210" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D210" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="N210" s="3">
         <v>175</v>
@@ -12189,10 +12138,10 @@
     </row>
     <row r="211" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D211" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="M211" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="M211" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="N211" s="3">
         <v>175</v>
@@ -12203,10 +12152,10 @@
     </row>
     <row r="212" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D212" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="N212" s="3">
         <v>175</v>
@@ -12217,10 +12166,10 @@
     </row>
     <row r="213" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D213" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M213" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="M213" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="N213" s="3">
         <v>175</v>
@@ -12231,10 +12180,10 @@
     </row>
     <row r="214" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D214" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="N214" s="3">
         <v>175</v>
@@ -12245,10 +12194,10 @@
     </row>
     <row r="215" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D215" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M215" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="M215" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="N215" s="3">
         <v>175</v>
@@ -12259,10 +12208,10 @@
     </row>
     <row r="216" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D216" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="N216" s="3">
         <v>175</v>
@@ -12273,10 +12222,10 @@
     </row>
     <row r="217" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D217" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="N217" s="3">
         <v>175</v>
@@ -12287,10 +12236,10 @@
     </row>
     <row r="218" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D218" s="3" t="s">
-        <v>235</v>
+        <v>449</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="N218" s="3">
         <v>175</v>
@@ -12301,10 +12250,10 @@
     </row>
     <row r="219" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D219" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="N219" s="3">
         <v>176</v>
@@ -12315,10 +12264,10 @@
     </row>
     <row r="220" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D220" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="M220" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="M220" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="N220" s="3">
         <v>176</v>
@@ -12329,10 +12278,10 @@
     </row>
     <row r="221" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D221" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="N221" s="3">
         <v>176</v>
@@ -12343,10 +12292,10 @@
     </row>
     <row r="222" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D222" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N222" s="3">
         <v>176</v>
@@ -12357,10 +12306,10 @@
     </row>
     <row r="223" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D223" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="N223" s="3">
         <v>176</v>
@@ -12371,10 +12320,10 @@
     </row>
     <row r="224" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D224" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="M224" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="M224" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="N224" s="3">
         <v>176</v>
@@ -12385,10 +12334,10 @@
     </row>
     <row r="225" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D225" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="N225" s="3">
         <v>176</v>
@@ -12399,10 +12348,10 @@
     </row>
     <row r="226" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D226" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="N226" s="3">
         <v>176</v>
@@ -12413,10 +12362,10 @@
     </row>
     <row r="227" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D227" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N227" s="3">
         <v>176</v>
@@ -12427,10 +12376,10 @@
     </row>
     <row r="228" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D228" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="N228" s="3">
         <v>176</v>
@@ -12441,10 +12390,10 @@
     </row>
     <row r="229" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D229" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="N229" s="3">
         <v>176</v>
@@ -12455,10 +12404,10 @@
     </row>
     <row r="230" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D230" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="N230" s="3">
         <v>176</v>
@@ -12469,10 +12418,10 @@
     </row>
     <row r="231" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D231" s="3" t="s">
-        <v>206</v>
+        <v>474</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="N231" s="3">
         <v>176</v>
@@ -12483,10 +12432,10 @@
     </row>
     <row r="232" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D232" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="N232" s="3">
         <v>176</v>
@@ -12497,10 +12446,10 @@
     </row>
     <row r="233" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D233" s="3" t="s">
-        <v>199</v>
+        <v>478</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N233" s="3">
         <v>176</v>
@@ -12511,10 +12460,10 @@
     </row>
     <row r="234" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D234" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="N234" s="3">
         <v>176</v>
@@ -12525,10 +12474,10 @@
     </row>
     <row r="235" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D235" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="N235" s="3">
         <v>176</v>
@@ -12539,10 +12488,10 @@
     </row>
     <row r="236" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D236" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="N236" s="3">
         <v>176</v>
@@ -12553,10 +12502,10 @@
     </row>
     <row r="237" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D237" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="N237" s="3">
         <v>176</v>
@@ -12567,10 +12516,10 @@
     </row>
     <row r="238" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D238" s="3" t="s">
-        <v>187</v>
+        <v>488</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="N238" s="3">
         <v>176</v>
@@ -12581,10 +12530,10 @@
     </row>
     <row r="239" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D239" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="N239" s="3">
         <v>176</v>
@@ -12595,10 +12544,10 @@
     </row>
     <row r="240" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D240" s="3" t="s">
-        <v>641</v>
+        <v>492</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N240" s="3">
         <v>176</v>
@@ -12609,10 +12558,10 @@
     </row>
     <row r="241" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D241" s="3" t="s">
-        <v>642</v>
+        <v>493</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N241" s="3">
         <v>176</v>
@@ -12623,10 +12572,10 @@
     </row>
     <row r="242" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D242" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="M242" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="M242" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="N242" s="3">
         <v>176</v>
@@ -12637,10 +12586,10 @@
     </row>
     <row r="243" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D243" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="N243" s="3">
         <v>176</v>
@@ -12651,10 +12600,10 @@
     </row>
     <row r="244" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D244" s="3" t="s">
-        <v>159</v>
+        <v>498</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N244" s="3">
         <v>177</v>
@@ -12665,10 +12614,10 @@
     </row>
     <row r="245" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D245" s="3" t="s">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="N245" s="3">
         <v>177</v>
@@ -12679,10 +12628,10 @@
     </row>
     <row r="246" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D246" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="N246" s="3">
         <v>177</v>
@@ -12693,10 +12642,10 @@
     </row>
     <row r="247" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D247" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="M247" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="M247" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="N247" s="3">
         <v>177</v>
@@ -12707,10 +12656,10 @@
     </row>
     <row r="248" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D248" s="3" t="s">
-        <v>147</v>
+        <v>505</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N248" s="3">
         <v>177</v>
@@ -12721,10 +12670,10 @@
     </row>
     <row r="249" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D249" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="M249" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="M249" s="3" t="s">
-        <v>508</v>
       </c>
       <c r="N249" s="3">
         <v>177</v>
@@ -12735,10 +12684,10 @@
     </row>
     <row r="250" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D250" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="N250" s="3">
         <v>177</v>
@@ -12749,10 +12698,10 @@
     </row>
     <row r="251" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D251" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M251" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="M251" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="N251" s="3">
         <v>177</v>
@@ -12763,10 +12712,10 @@
     </row>
     <row r="252" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D252" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="N252" s="3">
         <v>177</v>
@@ -12777,10 +12726,10 @@
     </row>
     <row r="253" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D253" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="N253" s="3">
         <v>177</v>
@@ -12791,10 +12740,10 @@
     </row>
     <row r="254" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D254" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="N254" s="3">
         <v>177</v>
@@ -12805,10 +12754,10 @@
     </row>
     <row r="255" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D255" s="3" t="s">
-        <v>134</v>
+        <v>518</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N255" s="3">
         <v>177</v>
@@ -12819,10 +12768,10 @@
     </row>
     <row r="256" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D256" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N256" s="3">
         <v>177</v>
@@ -12833,10 +12782,10 @@
     </row>
     <row r="257" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D257" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="M257" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="M257" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="N257" s="3">
         <v>177</v>
@@ -12847,10 +12796,10 @@
     </row>
     <row r="258" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D258" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N258" s="3">
         <v>177</v>
@@ -12861,10 +12810,10 @@
     </row>
     <row r="259" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D259" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N259" s="3">
         <v>177</v>
@@ -12875,10 +12824,10 @@
     </row>
     <row r="260" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D260" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="M260" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="M260" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="N260" s="3">
         <v>177</v>
@@ -12889,10 +12838,10 @@
     </row>
     <row r="261" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D261" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="N261" s="3">
         <v>177</v>
@@ -12903,10 +12852,10 @@
     </row>
     <row r="262" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D262" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N262" s="3">
         <v>177</v>
@@ -12917,10 +12866,10 @@
     </row>
     <row r="263" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D263" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M263" s="3" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="N263" s="3">
         <v>177</v>
@@ -12931,10 +12880,10 @@
     </row>
     <row r="264" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D264" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M264" s="3" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="N264" s="3">
         <v>177</v>
@@ -12945,10 +12894,10 @@
     </row>
     <row r="265" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D265" s="3" t="s">
-        <v>119</v>
+        <v>533</v>
       </c>
       <c r="M265" s="3" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="N265" s="3">
         <v>177</v>
@@ -12959,10 +12908,10 @@
     </row>
     <row r="266" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D266" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N266" s="3">
         <v>177</v>
@@ -12973,10 +12922,10 @@
     </row>
     <row r="267" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D267" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N267" s="3">
         <v>177</v>
@@ -12987,10 +12936,10 @@
     </row>
     <row r="268" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D268" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N268" s="3">
         <v>177</v>
@@ -13001,10 +12950,10 @@
     </row>
     <row r="269" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D269" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M269" s="9" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="N269" s="3">
         <v>177</v>
@@ -13015,10 +12964,10 @@
     </row>
     <row r="270" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D270" s="3" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="M270" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N270" s="3">
         <v>178</v>
@@ -13029,10 +12978,10 @@
     </row>
     <row r="271" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D271" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M271" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N271" s="3">
         <v>178</v>
@@ -13043,10 +12992,10 @@
     </row>
     <row r="272" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D272" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="M272" t="s">
         <v>543</v>
-      </c>
-      <c r="M272" t="s">
-        <v>544</v>
       </c>
       <c r="N272" s="3">
         <v>178</v>
@@ -13057,10 +13006,10 @@
     </row>
     <row r="273" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D273" s="3" t="s">
-        <v>672</v>
+        <v>544</v>
       </c>
       <c r="M273" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N273" s="3">
         <v>178</v>
@@ -13071,10 +13020,10 @@
     </row>
     <row r="274" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D274" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="M274" t="s">
         <v>547</v>
-      </c>
-      <c r="M274" t="s">
-        <v>548</v>
       </c>
       <c r="N274" s="3">
         <v>178</v>
@@ -13085,10 +13034,10 @@
     </row>
     <row r="275" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D275" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="M275" t="s">
         <v>549</v>
-      </c>
-      <c r="M275" t="s">
-        <v>550</v>
       </c>
       <c r="N275" s="3">
         <v>178</v>
@@ -13099,10 +13048,10 @@
     </row>
     <row r="276" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D276" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="M276" t="s">
         <v>551</v>
-      </c>
-      <c r="M276" t="s">
-        <v>552</v>
       </c>
       <c r="N276" s="3">
         <v>178</v>
@@ -13113,10 +13062,10 @@
     </row>
     <row r="277" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D277" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M277" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N277" s="3">
         <v>178</v>
@@ -13127,10 +13076,10 @@
     </row>
     <row r="278" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D278" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M278" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N278" s="3">
         <v>178</v>
@@ -13141,10 +13090,10 @@
     </row>
     <row r="279" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D279" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M279" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N279" s="3">
         <v>178</v>
@@ -13155,10 +13104,10 @@
     </row>
     <row r="280" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D280" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N280" s="3">
         <v>178</v>
@@ -13169,10 +13118,10 @@
     </row>
     <row r="281" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D281" s="3" t="s">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="M281" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N281" s="3">
         <v>178</v>
@@ -13183,10 +13132,10 @@
     </row>
     <row r="282" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D282" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M282" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N282" s="3">
         <v>178</v>
@@ -13197,10 +13146,10 @@
     </row>
     <row r="283" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D283" s="3" t="s">
-        <v>71</v>
+        <v>558</v>
       </c>
       <c r="M283" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N283" s="3">
         <v>178</v>
@@ -13211,10 +13160,10 @@
     </row>
     <row r="284" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D284" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M284" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N284" s="3">
         <v>178</v>
@@ -13225,10 +13174,10 @@
     </row>
     <row r="285" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D285" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M285" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N285" s="3">
         <v>178</v>
@@ -13239,10 +13188,10 @@
     </row>
     <row r="286" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D286" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M286" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="N286" s="3">
         <v>178</v>
@@ -13253,10 +13202,10 @@
     </row>
     <row r="287" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D287" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M287" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="N287" s="3">
         <v>178</v>
@@ -13267,10 +13216,10 @@
     </row>
     <row r="288" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D288" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M288" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N288" s="3">
         <v>178</v>
@@ -13281,10 +13230,10 @@
     </row>
     <row r="289" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D289" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M289" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N289" s="3">
         <v>178</v>
@@ -13295,10 +13244,10 @@
     </row>
     <row r="290" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D290" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M290" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N290" s="3">
         <v>178</v>
@@ -13309,10 +13258,10 @@
     </row>
     <row r="291" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D291" s="3" t="s">
-        <v>39</v>
+        <v>566</v>
       </c>
       <c r="M291" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N291" s="3">
         <v>178</v>
@@ -13323,10 +13272,10 @@
     </row>
     <row r="292" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D292" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M292" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N292" s="3">
         <v>178</v>
@@ -13337,10 +13286,10 @@
     </row>
     <row r="293" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D293" s="3" t="s">
-        <v>673</v>
+        <v>568</v>
       </c>
       <c r="M293" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N293" s="3">
         <v>178</v>
@@ -13351,10 +13300,10 @@
     </row>
     <row r="294" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D294" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="M294" t="s">
         <v>570</v>
-      </c>
-      <c r="M294" t="s">
-        <v>571</v>
       </c>
       <c r="N294" s="3">
         <v>178</v>
@@ -13373,8 +13322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13384,10 +13333,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" t="s">
         <v>372</v>
-      </c>
-      <c r="B1" t="s">
-        <v>373</v>
       </c>
       <c r="C1" t="s">
         <v>356</v>
@@ -13395,949 +13344,949 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
         <v>374</v>
-      </c>
-      <c r="B2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" t="s">
         <v>376</v>
-      </c>
-      <c r="B3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" t="s">
         <v>378</v>
-      </c>
-      <c r="B4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" t="s">
         <v>380</v>
-      </c>
-      <c r="B5" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
         <v>382</v>
-      </c>
-      <c r="B6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" t="s">
         <v>385</v>
-      </c>
-      <c r="B8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s">
         <v>387</v>
-      </c>
-      <c r="B9" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" t="s">
         <v>390</v>
-      </c>
-      <c r="B11" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" t="s">
         <v>392</v>
-      </c>
-      <c r="B12" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" t="s">
         <v>396</v>
-      </c>
-      <c r="B15" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" t="s">
         <v>401</v>
-      </c>
-      <c r="B19" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" t="s">
         <v>403</v>
-      </c>
-      <c r="B20" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" t="s">
         <v>405</v>
-      </c>
-      <c r="B21" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" t="s">
         <v>407</v>
-      </c>
-      <c r="B22" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" t="s">
         <v>409</v>
-      </c>
-      <c r="B23" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" t="s">
         <v>411</v>
-      </c>
-      <c r="B24" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B27" t="s">
         <v>415</v>
-      </c>
-      <c r="B27" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" t="s">
         <v>417</v>
-      </c>
-      <c r="B28" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B29" t="s">
         <v>419</v>
-      </c>
-      <c r="B29" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" t="s">
         <v>421</v>
-      </c>
-      <c r="B30" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" t="s">
         <v>423</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>424</v>
-      </c>
-      <c r="C31" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>425</v>
+      </c>
+      <c r="B32" t="s">
         <v>426</v>
-      </c>
-      <c r="B32" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" t="s">
         <v>428</v>
-      </c>
-      <c r="B33" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B34" t="s">
         <v>430</v>
-      </c>
-      <c r="B34" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" t="s">
         <v>432</v>
-      </c>
-      <c r="B35" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" t="s">
         <v>434</v>
-      </c>
-      <c r="B36" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37" t="s">
         <v>436</v>
-      </c>
-      <c r="B37" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>437</v>
+      </c>
+      <c r="B38" t="s">
         <v>438</v>
-      </c>
-      <c r="B38" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" t="s">
         <v>440</v>
-      </c>
-      <c r="B39" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>441</v>
+      </c>
+      <c r="B40" t="s">
         <v>442</v>
-      </c>
-      <c r="B40" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" t="s">
         <v>444</v>
-      </c>
-      <c r="B41" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>445</v>
+      </c>
+      <c r="B42" t="s">
         <v>446</v>
-      </c>
-      <c r="B42" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" t="s">
         <v>448</v>
-      </c>
-      <c r="B43" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" t="s">
         <v>450</v>
-      </c>
-      <c r="B44" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B45" t="s">
         <v>452</v>
-      </c>
-      <c r="B45" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46" t="s">
         <v>454</v>
-      </c>
-      <c r="B46" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>455</v>
+      </c>
+      <c r="B47" t="s">
         <v>456</v>
-      </c>
-      <c r="B47" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>457</v>
+      </c>
+      <c r="B48" t="s">
         <v>458</v>
-      </c>
-      <c r="B48" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>459</v>
+      </c>
+      <c r="B49" t="s">
         <v>460</v>
-      </c>
-      <c r="B49" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>461</v>
+      </c>
+      <c r="B50" t="s">
         <v>462</v>
-      </c>
-      <c r="B50" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>463</v>
+      </c>
+      <c r="B51" t="s">
         <v>464</v>
-      </c>
-      <c r="B51" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>465</v>
+      </c>
+      <c r="B52" t="s">
         <v>466</v>
-      </c>
-      <c r="B52" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>468</v>
+      </c>
+      <c r="B54" t="s">
         <v>469</v>
-      </c>
-      <c r="B54" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>470</v>
+      </c>
+      <c r="B55" t="s">
         <v>471</v>
-      </c>
-      <c r="B55" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>472</v>
+      </c>
+      <c r="B56" t="s">
         <v>473</v>
-      </c>
-      <c r="B56" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>474</v>
+      </c>
+      <c r="B57" t="s">
         <v>475</v>
-      </c>
-      <c r="B57" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>476</v>
+      </c>
+      <c r="B58" t="s">
         <v>477</v>
-      </c>
-      <c r="B58" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>478</v>
+      </c>
+      <c r="B59" t="s">
         <v>479</v>
-      </c>
-      <c r="B59" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>480</v>
+      </c>
+      <c r="B60" t="s">
         <v>481</v>
-      </c>
-      <c r="B60" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>482</v>
+      </c>
+      <c r="B61" t="s">
         <v>483</v>
-      </c>
-      <c r="B61" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>484</v>
+      </c>
+      <c r="B62" t="s">
         <v>485</v>
-      </c>
-      <c r="B62" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B63" t="s">
         <v>487</v>
-      </c>
-      <c r="B63" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>488</v>
+      </c>
+      <c r="B64" t="s">
         <v>489</v>
-      </c>
-      <c r="B64" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>490</v>
+      </c>
+      <c r="B65" t="s">
         <v>491</v>
-      </c>
-      <c r="B65" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>494</v>
+      </c>
+      <c r="B68" t="s">
         <v>495</v>
-      </c>
-      <c r="B68" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>496</v>
+      </c>
+      <c r="B69" t="s">
         <v>497</v>
-      </c>
-      <c r="B69" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B70" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>499</v>
+      </c>
+      <c r="B71" t="s">
         <v>500</v>
-      </c>
-      <c r="B71" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B72" t="s">
         <v>502</v>
-      </c>
-      <c r="B72" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>503</v>
+      </c>
+      <c r="B73" t="s">
         <v>504</v>
-      </c>
-      <c r="B73" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>506</v>
+      </c>
+      <c r="B75" t="s">
         <v>507</v>
-      </c>
-      <c r="B75" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>508</v>
+      </c>
+      <c r="B76" t="s">
         <v>509</v>
-      </c>
-      <c r="B76" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>510</v>
+      </c>
+      <c r="B77" t="s">
         <v>511</v>
-      </c>
-      <c r="B77" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>512</v>
+      </c>
+      <c r="B78" t="s">
         <v>513</v>
-      </c>
-      <c r="B78" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>514</v>
+      </c>
+      <c r="B79" t="s">
         <v>515</v>
-      </c>
-      <c r="B79" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B80" t="s">
         <v>517</v>
-      </c>
-      <c r="B80" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>518</v>
+      </c>
+      <c r="B81" t="s">
         <v>519</v>
-      </c>
-      <c r="B81" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>520</v>
+      </c>
+      <c r="B82" t="s">
         <v>521</v>
-      </c>
-      <c r="B82" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B84" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>524</v>
+      </c>
+      <c r="B85" t="s">
         <v>525</v>
-      </c>
-      <c r="B85" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>526</v>
+      </c>
+      <c r="B86" t="s">
         <v>527</v>
-      </c>
-      <c r="B86" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>529</v>
+      </c>
+      <c r="B88" t="s">
         <v>530</v>
-      </c>
-      <c r="B88" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>531</v>
+      </c>
+      <c r="B89" t="s">
         <v>532</v>
-      </c>
-      <c r="B89" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" t="s">
         <v>534</v>
-      </c>
-      <c r="B90" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B93" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>539</v>
+      </c>
+      <c r="B95" t="s">
         <v>540</v>
-      </c>
-      <c r="B95" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>542</v>
+      </c>
+      <c r="B97" t="s">
         <v>543</v>
-      </c>
-      <c r="B97" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>544</v>
+      </c>
+      <c r="B98" t="s">
         <v>545</v>
-      </c>
-      <c r="B98" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>546</v>
+      </c>
+      <c r="B99" t="s">
         <v>547</v>
-      </c>
-      <c r="B99" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>548</v>
+      </c>
+      <c r="B100" t="s">
         <v>549</v>
-      </c>
-      <c r="B100" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>550</v>
+      </c>
+      <c r="B101" t="s">
         <v>551</v>
-      </c>
-      <c r="B101" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B102" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B104" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B105" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B107" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B108" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B109" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B110" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B112" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B113" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B114" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B117" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B118" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>569</v>
+      </c>
+      <c r="B119" t="s">
         <v>570</v>
-      </c>
-      <c r="B119" t="s">
-        <v>571</v>
       </c>
     </row>
   </sheetData>
